--- a/office/일반차량번호입력중/일반차량번호입력중1.xlsx
+++ b/office/일반차량번호입력중/일반차량번호입력중1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gas00\MathTool\office\일반차량번호입력중\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CC22B71-B8C1-4231-8FDB-639F35E7FF08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FBDAB63-E536-4BE5-905A-D393CD6EAE94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6F6E691F-2BE5-478D-A9F0-043C6EFC44F1}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>차량번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -52,6 +52,10 @@
   </si>
   <si>
     <t>일자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2158,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -77,12 +81,11 @@
     </font>
     <font>
       <sz val="14"/>
-      <color rgb="FFB5CEA8"/>
       <name val="Consolas"/>
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -92,6 +95,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -110,17 +119,20 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -459,8 +471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EF5BBC0-C671-4928-BFF0-1180F7325CA2}">
   <dimension ref="A1:H169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
-      <selection activeCell="C171" sqref="C171"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -477,7 +489,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
+      <c r="A2" s="2">
         <v>45373</v>
       </c>
       <c r="B2">
@@ -485,7 +497,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>45373</v>
       </c>
       <c r="B3">
@@ -500,7 +512,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <v>45373</v>
       </c>
       <c r="B4">
@@ -508,16 +520,22 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <v>45373</v>
       </c>
       <c r="B5">
         <v>1050</v>
       </c>
-      <c r="F5" s="2"/>
+      <c r="F5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="4" t="str">
+        <f>SUBSTITUTE(F5, ",", "")</f>
+        <v>2158</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <v>45373</v>
       </c>
       <c r="B6">
@@ -525,7 +543,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
+      <c r="A7" s="2">
         <v>45373</v>
       </c>
       <c r="B7">
@@ -533,7 +551,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
+      <c r="A8" s="2">
         <v>45373</v>
       </c>
       <c r="B8">
@@ -541,7 +559,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
+      <c r="A9" s="2">
         <v>45373</v>
       </c>
       <c r="B9">
@@ -549,7 +567,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
+      <c r="A10" s="2">
         <v>45373</v>
       </c>
       <c r="B10">
@@ -557,7 +575,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
+      <c r="A11" s="2">
         <v>45373</v>
       </c>
       <c r="B11">
@@ -565,7 +583,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
+      <c r="A12" s="2">
         <v>45373</v>
       </c>
       <c r="B12">
@@ -573,7 +591,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="3">
+      <c r="A13" s="2">
         <v>45373</v>
       </c>
       <c r="B13">
@@ -581,7 +599,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="3">
+      <c r="A14" s="2">
         <v>45373</v>
       </c>
       <c r="B14">
@@ -589,7 +607,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="3">
+      <c r="A15" s="2">
         <v>45373</v>
       </c>
       <c r="B15">
@@ -597,7 +615,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="3">
+      <c r="A16" s="2">
         <v>45373</v>
       </c>
       <c r="B16">
@@ -605,7 +623,7 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="3">
+      <c r="A17" s="2">
         <v>45373</v>
       </c>
       <c r="B17">
@@ -613,7 +631,7 @@
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="3">
+      <c r="A18" s="2">
         <v>45373</v>
       </c>
       <c r="B18">
@@ -621,7 +639,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="3">
+      <c r="A19" s="2">
         <v>45373</v>
       </c>
       <c r="B19">
@@ -629,7 +647,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="3">
+      <c r="A20" s="2">
         <v>45373</v>
       </c>
       <c r="B20">
@@ -637,7 +655,7 @@
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="3">
+      <c r="A21" s="2">
         <v>45373</v>
       </c>
       <c r="B21">
@@ -645,7 +663,7 @@
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="3">
+      <c r="A22" s="2">
         <v>45373</v>
       </c>
       <c r="B22">
@@ -653,7 +671,7 @@
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="3">
+      <c r="A23" s="2">
         <v>45373</v>
       </c>
       <c r="B23">
@@ -661,7 +679,7 @@
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="3">
+      <c r="A24" s="2">
         <v>45373</v>
       </c>
       <c r="B24">
@@ -669,7 +687,7 @@
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="3">
+      <c r="A25" s="2">
         <v>45373</v>
       </c>
       <c r="B25">
@@ -677,7 +695,7 @@
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="3">
+      <c r="A26" s="2">
         <v>45373</v>
       </c>
       <c r="B26">
@@ -685,7 +703,7 @@
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="3">
+      <c r="A27" s="2">
         <v>45373</v>
       </c>
       <c r="B27">
@@ -693,7 +711,7 @@
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="3">
+      <c r="A28" s="2">
         <v>45373</v>
       </c>
       <c r="B28">
@@ -701,7 +719,7 @@
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="3">
+      <c r="A29" s="2">
         <v>45373</v>
       </c>
       <c r="B29">
@@ -709,7 +727,7 @@
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="3">
+      <c r="A30" s="2">
         <v>45373</v>
       </c>
       <c r="B30">
@@ -717,7 +735,7 @@
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="3">
+      <c r="A31" s="2">
         <v>45373</v>
       </c>
       <c r="B31">
@@ -725,7 +743,7 @@
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="3">
+      <c r="A32" s="2">
         <v>45373</v>
       </c>
       <c r="B32">
@@ -733,7 +751,7 @@
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="3">
+      <c r="A33" s="2">
         <v>45373</v>
       </c>
       <c r="B33">
@@ -741,7 +759,7 @@
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="3">
+      <c r="A34" s="2">
         <v>45373</v>
       </c>
       <c r="B34">
@@ -749,7 +767,7 @@
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="3">
+      <c r="A35" s="2">
         <v>45373</v>
       </c>
       <c r="B35">
@@ -757,7 +775,7 @@
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="3">
+      <c r="A36" s="2">
         <v>45373</v>
       </c>
       <c r="B36">
@@ -765,7 +783,7 @@
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="3">
+      <c r="A37" s="2">
         <v>45373</v>
       </c>
       <c r="B37">
@@ -773,7 +791,7 @@
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="3">
+      <c r="A38" s="2">
         <v>45373</v>
       </c>
       <c r="B38">
@@ -781,7 +799,7 @@
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="3">
+      <c r="A39" s="2">
         <v>45373</v>
       </c>
       <c r="B39">
@@ -789,7 +807,7 @@
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="3">
+      <c r="A40" s="2">
         <v>45373</v>
       </c>
       <c r="B40">
@@ -797,7 +815,7 @@
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="3">
+      <c r="A41" s="2">
         <v>45373</v>
       </c>
       <c r="B41">
@@ -805,7 +823,7 @@
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="3">
+      <c r="A42" s="2">
         <v>45373</v>
       </c>
       <c r="B42">
@@ -813,7 +831,7 @@
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="3">
+      <c r="A43" s="2">
         <v>45373</v>
       </c>
       <c r="B43">
@@ -821,7 +839,7 @@
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="3">
+      <c r="A44" s="2">
         <v>45373</v>
       </c>
       <c r="B44">
@@ -829,7 +847,7 @@
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" s="3">
+      <c r="A45" s="2">
         <v>45373</v>
       </c>
       <c r="B45">
@@ -837,7 +855,7 @@
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" s="3">
+      <c r="A46" s="2">
         <v>45373</v>
       </c>
       <c r="B46">
@@ -845,7 +863,7 @@
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" s="3">
+      <c r="A47" s="2">
         <v>45373</v>
       </c>
       <c r="B47">
@@ -853,7 +871,7 @@
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" s="3">
+      <c r="A48" s="2">
         <v>45373</v>
       </c>
       <c r="B48">
@@ -861,7 +879,7 @@
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="3">
+      <c r="A49" s="2">
         <v>45373</v>
       </c>
       <c r="B49">
@@ -869,7 +887,7 @@
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="3">
+      <c r="A50" s="2">
         <v>45373</v>
       </c>
       <c r="B50">
@@ -877,7 +895,7 @@
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" s="3">
+      <c r="A51" s="2">
         <v>45373</v>
       </c>
       <c r="B51">
@@ -885,7 +903,7 @@
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" s="3">
+      <c r="A52" s="2">
         <v>45373</v>
       </c>
       <c r="B52">
@@ -893,7 +911,7 @@
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" s="3">
+      <c r="A53" s="2">
         <v>45373</v>
       </c>
       <c r="B53">
@@ -901,7 +919,7 @@
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" s="3">
+      <c r="A54" s="2">
         <v>45373</v>
       </c>
       <c r="B54">
@@ -909,7 +927,7 @@
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" s="3">
+      <c r="A55" s="2">
         <v>45373</v>
       </c>
       <c r="B55">
@@ -917,7 +935,7 @@
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" s="3">
+      <c r="A56" s="2">
         <v>45373</v>
       </c>
       <c r="B56">
@@ -925,7 +943,7 @@
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" s="3">
+      <c r="A57" s="2">
         <v>45373</v>
       </c>
       <c r="B57">
@@ -933,7 +951,7 @@
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" s="3">
+      <c r="A58" s="2">
         <v>45373</v>
       </c>
       <c r="B58">
@@ -941,7 +959,7 @@
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" s="3">
+      <c r="A59" s="2">
         <v>45373</v>
       </c>
       <c r="B59">
@@ -949,7 +967,7 @@
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" s="3">
+      <c r="A60" s="2">
         <v>45373</v>
       </c>
       <c r="B60">
@@ -957,7 +975,7 @@
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" s="3">
+      <c r="A61" s="2">
         <v>45373</v>
       </c>
       <c r="B61">
@@ -965,7 +983,7 @@
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" s="3">
+      <c r="A62" s="2">
         <v>45373</v>
       </c>
       <c r="B62">
@@ -973,7 +991,7 @@
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63" s="3">
+      <c r="A63" s="2">
         <v>45373</v>
       </c>
       <c r="B63">
@@ -981,7 +999,7 @@
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64" s="3">
+      <c r="A64" s="2">
         <v>45373</v>
       </c>
       <c r="B64">
@@ -989,7 +1007,7 @@
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" s="3">
+      <c r="A65" s="2">
         <v>45373</v>
       </c>
       <c r="B65">
@@ -997,7 +1015,7 @@
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" s="3">
+      <c r="A66" s="2">
         <v>45373</v>
       </c>
       <c r="B66">
@@ -1005,7 +1023,7 @@
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67" s="3">
+      <c r="A67" s="2">
         <v>45373</v>
       </c>
       <c r="B67">
@@ -1013,7 +1031,7 @@
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A68" s="3">
+      <c r="A68" s="2">
         <v>45373</v>
       </c>
       <c r="B68">
@@ -1021,7 +1039,7 @@
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A69" s="3">
+      <c r="A69" s="2">
         <v>45373</v>
       </c>
       <c r="B69">
@@ -1029,7 +1047,7 @@
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A70" s="3">
+      <c r="A70" s="2">
         <v>45373</v>
       </c>
       <c r="B70">
@@ -1037,7 +1055,7 @@
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A71" s="3">
+      <c r="A71" s="2">
         <v>45373</v>
       </c>
       <c r="B71">
@@ -1045,7 +1063,7 @@
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A72" s="3">
+      <c r="A72" s="2">
         <v>45373</v>
       </c>
       <c r="B72">
@@ -1053,7 +1071,7 @@
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A73" s="3">
+      <c r="A73" s="2">
         <v>45373</v>
       </c>
       <c r="B73">
@@ -1061,7 +1079,7 @@
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A74" s="3">
+      <c r="A74" s="2">
         <v>45373</v>
       </c>
       <c r="B74">
@@ -1069,7 +1087,7 @@
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A75" s="3">
+      <c r="A75" s="2">
         <v>45373</v>
       </c>
       <c r="B75">
@@ -1077,7 +1095,7 @@
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A76" s="3">
+      <c r="A76" s="2">
         <v>45373</v>
       </c>
       <c r="B76">
@@ -1085,7 +1103,7 @@
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A77" s="3">
+      <c r="A77" s="2">
         <v>45373</v>
       </c>
       <c r="B77">
@@ -1093,7 +1111,7 @@
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A78" s="3">
+      <c r="A78" s="2">
         <v>45373</v>
       </c>
       <c r="B78">
@@ -1101,7 +1119,7 @@
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A79" s="3">
+      <c r="A79" s="2">
         <v>45373</v>
       </c>
       <c r="B79">
@@ -1109,7 +1127,7 @@
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A80" s="3">
+      <c r="A80" s="2">
         <v>45373</v>
       </c>
       <c r="B80">
@@ -1117,7 +1135,7 @@
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A81" s="3">
+      <c r="A81" s="2">
         <v>45373</v>
       </c>
       <c r="B81">
@@ -1125,7 +1143,7 @@
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A82" s="3">
+      <c r="A82" s="2">
         <v>45373</v>
       </c>
       <c r="B82">
@@ -1133,7 +1151,7 @@
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A83" s="3">
+      <c r="A83" s="2">
         <v>45373</v>
       </c>
       <c r="B83">
@@ -1141,7 +1159,7 @@
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A84" s="3">
+      <c r="A84" s="2">
         <v>45373</v>
       </c>
       <c r="B84">
@@ -1149,7 +1167,7 @@
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A85" s="3">
+      <c r="A85" s="2">
         <v>45373</v>
       </c>
       <c r="B85">
@@ -1157,7 +1175,7 @@
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A86" s="3">
+      <c r="A86" s="2">
         <v>45373</v>
       </c>
       <c r="B86">
@@ -1165,7 +1183,7 @@
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A87" s="3">
+      <c r="A87" s="2">
         <v>45373</v>
       </c>
       <c r="B87">
@@ -1173,7 +1191,7 @@
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A88" s="3">
+      <c r="A88" s="2">
         <v>45373</v>
       </c>
       <c r="B88">
@@ -1181,7 +1199,7 @@
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A89" s="3">
+      <c r="A89" s="2">
         <v>45373</v>
       </c>
       <c r="B89">
@@ -1189,7 +1207,7 @@
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A90" s="3">
+      <c r="A90" s="2">
         <v>45373</v>
       </c>
       <c r="B90">
@@ -1197,7 +1215,7 @@
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A91" s="3">
+      <c r="A91" s="2">
         <v>45373</v>
       </c>
       <c r="B91">
@@ -1205,7 +1223,7 @@
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A92" s="3">
+      <c r="A92" s="2">
         <v>45373</v>
       </c>
       <c r="B92">
@@ -1213,7 +1231,7 @@
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A93" s="3">
+      <c r="A93" s="2">
         <v>45373</v>
       </c>
       <c r="B93">
@@ -1221,7 +1239,7 @@
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A94" s="3">
+      <c r="A94" s="2">
         <v>45373</v>
       </c>
       <c r="B94">
@@ -1229,7 +1247,7 @@
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A95" s="3">
+      <c r="A95" s="2">
         <v>45373</v>
       </c>
       <c r="B95">
@@ -1237,7 +1255,7 @@
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A96" s="3">
+      <c r="A96" s="2">
         <v>45373</v>
       </c>
       <c r="B96">
@@ -1245,7 +1263,7 @@
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A97" s="3">
+      <c r="A97" s="2">
         <v>45373</v>
       </c>
       <c r="B97">
@@ -1253,7 +1271,7 @@
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A98" s="3">
+      <c r="A98" s="2">
         <v>45373</v>
       </c>
       <c r="B98">
@@ -1261,7 +1279,7 @@
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A99" s="3">
+      <c r="A99" s="2">
         <v>45373</v>
       </c>
       <c r="B99">
@@ -1269,7 +1287,7 @@
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A100" s="3">
+      <c r="A100" s="2">
         <v>45373</v>
       </c>
       <c r="B100">
@@ -1277,7 +1295,7 @@
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A101" s="3">
+      <c r="A101" s="2">
         <v>45373</v>
       </c>
       <c r="B101">
@@ -1285,7 +1303,7 @@
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A102" s="3">
+      <c r="A102" s="2">
         <v>45373</v>
       </c>
       <c r="B102">
@@ -1293,7 +1311,7 @@
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A103" s="3">
+      <c r="A103" s="2">
         <v>45373</v>
       </c>
       <c r="B103">
@@ -1301,7 +1319,7 @@
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A104" s="3">
+      <c r="A104" s="2">
         <v>45373</v>
       </c>
       <c r="B104">
@@ -1309,7 +1327,7 @@
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A105" s="3">
+      <c r="A105" s="2">
         <v>45373</v>
       </c>
       <c r="B105">
@@ -1317,7 +1335,7 @@
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A106" s="3">
+      <c r="A106" s="2">
         <v>45373</v>
       </c>
       <c r="B106">
@@ -1325,7 +1343,7 @@
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A107" s="3">
+      <c r="A107" s="2">
         <v>45373</v>
       </c>
       <c r="B107">
@@ -1333,7 +1351,7 @@
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A108" s="3">
+      <c r="A108" s="2">
         <v>45373</v>
       </c>
       <c r="B108">
@@ -1341,7 +1359,7 @@
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A109" s="3">
+      <c r="A109" s="2">
         <v>45373</v>
       </c>
       <c r="B109">
@@ -1349,7 +1367,7 @@
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A110" s="3">
+      <c r="A110" s="2">
         <v>45373</v>
       </c>
       <c r="B110">
@@ -1357,7 +1375,7 @@
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A111" s="3">
+      <c r="A111" s="2">
         <v>45373</v>
       </c>
       <c r="B111">
@@ -1365,7 +1383,7 @@
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A112" s="3">
+      <c r="A112" s="2">
         <v>45373</v>
       </c>
       <c r="B112">
@@ -1373,7 +1391,7 @@
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A113" s="3">
+      <c r="A113" s="2">
         <v>45373</v>
       </c>
       <c r="B113">
@@ -1381,7 +1399,7 @@
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A114" s="3">
+      <c r="A114" s="2">
         <v>45373</v>
       </c>
       <c r="B114">
@@ -1389,7 +1407,7 @@
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A115" s="3">
+      <c r="A115" s="2">
         <v>45373</v>
       </c>
       <c r="B115">
@@ -1397,7 +1415,7 @@
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A116" s="3">
+      <c r="A116" s="2">
         <v>45373</v>
       </c>
       <c r="B116">
@@ -1405,7 +1423,7 @@
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A117" s="3">
+      <c r="A117" s="2">
         <v>45373</v>
       </c>
       <c r="B117">
@@ -1413,7 +1431,7 @@
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A118" s="3">
+      <c r="A118" s="2">
         <v>45373</v>
       </c>
       <c r="B118">
@@ -1421,7 +1439,7 @@
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A119" s="3">
+      <c r="A119" s="2">
         <v>45373</v>
       </c>
       <c r="B119">
@@ -1429,7 +1447,7 @@
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A120" s="3">
+      <c r="A120" s="2">
         <v>45373</v>
       </c>
       <c r="B120">
@@ -1437,7 +1455,7 @@
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A121" s="3">
+      <c r="A121" s="2">
         <v>45373</v>
       </c>
       <c r="B121">
@@ -1445,7 +1463,7 @@
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A122" s="3">
+      <c r="A122" s="2">
         <v>45373</v>
       </c>
       <c r="B122">
@@ -1453,7 +1471,7 @@
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A123" s="3">
+      <c r="A123" s="2">
         <v>45373</v>
       </c>
       <c r="B123">
@@ -1461,7 +1479,7 @@
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A124" s="3">
+      <c r="A124" s="2">
         <v>45373</v>
       </c>
       <c r="B124">
@@ -1469,7 +1487,7 @@
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A125" s="3">
+      <c r="A125" s="2">
         <v>45373</v>
       </c>
       <c r="B125">
@@ -1477,7 +1495,7 @@
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A126" s="3">
+      <c r="A126" s="2">
         <v>45373</v>
       </c>
       <c r="B126">
@@ -1485,7 +1503,7 @@
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A127" s="3">
+      <c r="A127" s="2">
         <v>45373</v>
       </c>
       <c r="B127">
@@ -1493,7 +1511,7 @@
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A128" s="3">
+      <c r="A128" s="2">
         <v>45373</v>
       </c>
       <c r="B128">
@@ -1501,7 +1519,7 @@
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A129" s="3">
+      <c r="A129" s="2">
         <v>45373</v>
       </c>
       <c r="B129">
@@ -1509,7 +1527,7 @@
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A130" s="3">
+      <c r="A130" s="2">
         <v>45373</v>
       </c>
       <c r="B130">
@@ -1517,7 +1535,7 @@
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A131" s="3">
+      <c r="A131" s="2">
         <v>45373</v>
       </c>
       <c r="B131">
@@ -1525,7 +1543,7 @@
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A132" s="3">
+      <c r="A132" s="2">
         <v>45373</v>
       </c>
       <c r="B132">
@@ -1533,7 +1551,7 @@
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A133" s="3">
+      <c r="A133" s="2">
         <v>45373</v>
       </c>
       <c r="B133">
@@ -1541,7 +1559,7 @@
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A134" s="3">
+      <c r="A134" s="2">
         <v>45373</v>
       </c>
       <c r="B134">
@@ -1549,7 +1567,7 @@
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A135" s="3">
+      <c r="A135" s="2">
         <v>45373</v>
       </c>
       <c r="B135">
@@ -1557,7 +1575,7 @@
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A136" s="3">
+      <c r="A136" s="2">
         <v>45373</v>
       </c>
       <c r="B136">
@@ -1565,7 +1583,7 @@
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A137" s="3">
+      <c r="A137" s="2">
         <v>45373</v>
       </c>
       <c r="B137">
@@ -1573,7 +1591,7 @@
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A138" s="3">
+      <c r="A138" s="2">
         <v>45373</v>
       </c>
       <c r="B138">
@@ -1581,7 +1599,7 @@
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A139" s="3">
+      <c r="A139" s="2">
         <v>45373</v>
       </c>
       <c r="B139">
@@ -1589,7 +1607,7 @@
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A140" s="3">
+      <c r="A140" s="2">
         <v>45373</v>
       </c>
       <c r="B140">
@@ -1597,7 +1615,7 @@
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A141" s="3">
+      <c r="A141" s="2">
         <v>45373</v>
       </c>
       <c r="B141">
@@ -1605,7 +1623,7 @@
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A142" s="3">
+      <c r="A142" s="2">
         <v>45373</v>
       </c>
       <c r="B142">
@@ -1613,7 +1631,7 @@
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A143" s="3">
+      <c r="A143" s="2">
         <v>45373</v>
       </c>
       <c r="B143">
@@ -1621,7 +1639,7 @@
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A144" s="3">
+      <c r="A144" s="2">
         <v>45373</v>
       </c>
       <c r="B144">
@@ -1629,7 +1647,7 @@
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A145" s="3">
+      <c r="A145" s="2">
         <v>45373</v>
       </c>
       <c r="B145">
@@ -1637,7 +1655,7 @@
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A146" s="3">
+      <c r="A146" s="2">
         <v>45373</v>
       </c>
       <c r="B146">
@@ -1645,7 +1663,7 @@
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A147" s="3">
+      <c r="A147" s="2">
         <v>45373</v>
       </c>
       <c r="B147">
@@ -1653,7 +1671,7 @@
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A148" s="3">
+      <c r="A148" s="2">
         <v>45373</v>
       </c>
       <c r="B148">
@@ -1661,7 +1679,7 @@
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A149" s="3">
+      <c r="A149" s="2">
         <v>45373</v>
       </c>
       <c r="B149">
@@ -1669,7 +1687,7 @@
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A150" s="3">
+      <c r="A150" s="2">
         <v>45373</v>
       </c>
       <c r="B150">
@@ -1677,7 +1695,7 @@
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A151" s="3">
+      <c r="A151" s="2">
         <v>45373</v>
       </c>
       <c r="B151">
@@ -1685,7 +1703,7 @@
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A152" s="3">
+      <c r="A152" s="2">
         <v>45373</v>
       </c>
       <c r="B152">
@@ -1693,7 +1711,7 @@
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A153" s="3">
+      <c r="A153" s="2">
         <v>45373</v>
       </c>
       <c r="B153">
@@ -1701,7 +1719,7 @@
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A154" s="3">
+      <c r="A154" s="2">
         <v>45373</v>
       </c>
       <c r="B154">
@@ -1709,7 +1727,7 @@
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A155" s="3">
+      <c r="A155" s="2">
         <v>45373</v>
       </c>
       <c r="B155">
@@ -1717,7 +1735,7 @@
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A156" s="3">
+      <c r="A156" s="2">
         <v>45373</v>
       </c>
       <c r="B156">
@@ -1725,7 +1743,7 @@
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A157" s="3">
+      <c r="A157" s="2">
         <v>45373</v>
       </c>
       <c r="B157">
@@ -1733,7 +1751,7 @@
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A158" s="3">
+      <c r="A158" s="2">
         <v>45373</v>
       </c>
       <c r="B158">
@@ -1741,7 +1759,7 @@
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A159" s="3">
+      <c r="A159" s="2">
         <v>45373</v>
       </c>
       <c r="B159">
@@ -1749,7 +1767,7 @@
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A160" s="3">
+      <c r="A160" s="2">
         <v>45373</v>
       </c>
       <c r="B160">
@@ -1757,7 +1775,7 @@
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A161" s="3">
+      <c r="A161" s="2">
         <v>45373</v>
       </c>
       <c r="B161">
@@ -1765,7 +1783,7 @@
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A162" s="3">
+      <c r="A162" s="2">
         <v>45373</v>
       </c>
       <c r="B162">
@@ -1773,7 +1791,7 @@
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A163" s="3">
+      <c r="A163" s="2">
         <v>45373</v>
       </c>
       <c r="B163">
@@ -1781,7 +1799,7 @@
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A164" s="3">
+      <c r="A164" s="2">
         <v>45373</v>
       </c>
       <c r="B164">
@@ -1789,7 +1807,7 @@
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A165" s="3">
+      <c r="A165" s="2">
         <v>45373</v>
       </c>
       <c r="B165">
@@ -1797,7 +1815,7 @@
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A166" s="3">
+      <c r="A166" s="2">
         <v>45373</v>
       </c>
       <c r="B166">
@@ -1805,7 +1823,7 @@
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A167" s="3">
+      <c r="A167" s="2">
         <v>45373</v>
       </c>
       <c r="B167">
@@ -1813,7 +1831,7 @@
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A168" s="3">
+      <c r="A168" s="2">
         <v>45373</v>
       </c>
       <c r="B168">
@@ -1821,7 +1839,7 @@
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A169" s="3">
+      <c r="A169" s="2">
         <v>45373</v>
       </c>
       <c r="B169">
